--- a/biology/Botanique/Romulea/Romulea.xlsx
+++ b/biology/Botanique/Romulea/Romulea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Romulea est un genre de plantes herbacées bulbeuses de la famille des Iridaceae. Il comporte environ 80 espèces dont la répartition s'étend sur l'Europe, le bassin méditerranéen et l'Afrique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Romulea sont des plantes mesurant de 10 à 15 cm à petit bulbe cailleux, les feuilles et les bulbes ressemblant à celle de Juncus effusus pour certaines, et celles de Allium triquetrum (l'ail à trois angles) pour d'autres.
 La couleur de leurs fleurs varie du blanc au jaune, mauve-jaunâtre ou jaune-mauvâtre. Au sein d'une même espèce les variations de couleur sont très grande. Généralement ce n'est pas un bon critère d'identification. 
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces dégagent une odeur nauséabonde quand elles sont écrasées. 
 Le milieu humide favorisant la dissémination et le processus olfactif il s'agiraitt d'un procédé de défense et de protection contre les grands herbivores. 
@@ -576,9 +592,11 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009), le bulbe de R. bulbocodium est ou a été parfois consommé. Il pousse en Europe en climat méditerranéen, mais en France on le trouve aussi sur le littoral atlantique gascon et dans certaines îles ; sur l’île d'Yeu, et en Espagne, il est parfois mâché (pour son goût de noisette)[1] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009), le bulbe de R. bulbocodium est ou a été parfois consommé. Il pousse en Europe en climat méditerranéen, mais en France on le trouve aussi sur le littoral atlantique gascon et dans certaines îles ; sur l’île d'Yeu, et en Espagne, il est parfois mâché (pour son goût de noisette) ;
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (16 mai 2012)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (16 mai 2012) :
 Romulea albiflora J.C.Manning &amp; Goldblatt (2001)
 Romulea albomarginata M.P.de Vos, J. S. African Bot. (1972)
 Romulea amoena Schltr. ex Bég. (1907)
